--- a/results/logistic/dilemma/confidence/0.2/avg_scores.xlsx
+++ b/results/logistic/dilemma/confidence/0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="295">
   <si>
     <t>negative</t>
   </si>
@@ -43,15 +43,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
     <t>foreign</t>
   </si>
   <si>
@@ -64,862 +55,850 @@
     <t>unfortunately</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>inspiring</t>
-  </si>
-  <si>
-    <t>various</t>
-  </si>
-  <si>
-    <t>equation</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>contained</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>holy</t>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>dea</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>chilling</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>least</t>
   </si>
   <si>
     <t>ho</t>
   </si>
   <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>considering</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>finally</t>
   </si>
   <si>
     <t>released</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
     <t>late</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>considering</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>crap</t>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>curious</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>completely</t>
+    <t>app</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>six</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>slight</t>
-  </si>
-  <si>
-    <t>shows</t>
-  </si>
-  <si>
-    <t>come</t>
+    <t>any</t>
   </si>
   <si>
     <t>at</t>
   </si>
   <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>any</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spreads</t>
   </si>
   <si>
     <t>not</t>
   </si>
   <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>going</t>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>twitter</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>customers</t>
+    <t>re</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>because</t>
   </si>
   <si>
     <t>these</t>
   </si>
   <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>industries</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>two</t>
   </si>
   <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>doc</t>
+    <t>s</t>
   </si>
   <si>
     <t>users</t>
   </si>
   <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>:</t>
+    <t>my</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>me</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
-    <t>s</t>
+    <t>what</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>'</t>
   </si>
   <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>it</t>
+    <t>’</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>barlow</t>
+  </si>
+  <si>
+    <t>arthur</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>suggested</t>
+  </si>
+  <si>
+    <t>implications</t>
+  </si>
+  <si>
+    <t>loving</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>films</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>engineers</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>critics</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gotten</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>immediately</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>aware</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>can</t>
   </si>
   <si>
     <t>just</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>people</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
   <si>
     <t>on</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>clarke</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>talked</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>lesson</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>ending</t>
-  </si>
-  <si>
-    <t>millennia</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>interact</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>gen</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>jar</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>gotten</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>influence</t>
-  </si>
-  <si>
-    <t>strongly</t>
-  </si>
-  <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>critics</t>
-  </si>
-  <si>
-    <t>itself</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>documentaries</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>living</t>
-  </si>
-  <si>
-    <t>scrolling</t>
-  </si>
-  <si>
-    <t>oh</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>manipulated</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>happening</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>”</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q158"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1367,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1396,13 +1375,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1414,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1446,13 +1425,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1464,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1496,13 +1475,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1514,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1546,13 +1525,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1564,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1588,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1596,13 +1575,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8913043478260869</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1614,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1638,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1646,13 +1625,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1664,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K9">
-        <v>0.7894736842105263</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1688,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1696,13 +1675,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.7446808510638298</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1714,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K10">
-        <v>0.78</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1738,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1746,13 +1725,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.7142857142857143</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1764,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K11">
-        <v>0.7719298245614035</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1788,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1796,13 +1775,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1814,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1838,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1846,13 +1825,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1864,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K13">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1888,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1896,49 +1875,49 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>9</v>
       </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="J14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>4</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="M14">
-        <v>25</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1946,13 +1925,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1964,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1988,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1996,13 +1975,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2014,19 +1993,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2046,13 +2025,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2064,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K17">
-        <v>0.6486486486486487</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2088,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2096,13 +2075,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.5151515151515151</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2114,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K18">
-        <v>0.6111111111111112</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2138,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2167,16 +2146,16 @@
         <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2188,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2199,10 +2178,10 @@
         <v>0.5</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2214,19 +2193,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2238,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2249,10 +2228,10 @@
         <v>0.5</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2264,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K21">
         <v>0.5</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2288,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2299,10 +2278,10 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2314,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K22">
         <v>0.5</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2338,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2346,13 +2325,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2364,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K23">
         <v>0.5</v>
@@ -2396,13 +2375,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2414,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K24">
         <v>0.5</v>
@@ -2446,13 +2425,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2464,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K25">
         <v>0.5</v>
@@ -2496,13 +2475,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2514,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K26">
         <v>0.5</v>
@@ -2546,13 +2525,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2564,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K27">
         <v>0.5</v>
@@ -2596,13 +2575,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2614,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2638,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2646,13 +2625,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.4782608695652174</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2664,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K29">
-        <v>0.4137931034482759</v>
+        <v>0.4</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2688,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2696,13 +2675,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.475</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2714,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K30">
         <v>0.4</v>
@@ -2746,13 +2725,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.4615384615384616</v>
+        <v>0.375</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2764,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K31">
-        <v>0.3866666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2788,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2796,13 +2775,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.4615384615384616</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2814,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="K32">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2838,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2846,13 +2825,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.4615384615384616</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2864,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K33">
-        <v>0.3636363636363636</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2888,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2896,13 +2875,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.4583333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2914,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K34">
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2938,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2946,13 +2925,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.4545454545454545</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2964,19 +2943,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K35">
-        <v>0.3333333333333333</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2988,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2996,13 +2975,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3014,19 +2993,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3038,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3046,13 +3025,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3064,19 +3043,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.34375</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3088,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3096,13 +3075,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3114,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="K38">
         <v>0.3333333333333333</v>
@@ -3146,13 +3125,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3164,19 +3143,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K39">
         <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3188,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3196,13 +3175,13 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3214,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K40">
         <v>0.3333333333333333</v>
@@ -3246,13 +3225,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.375</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3264,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K41">
         <v>0.3333333333333333</v>
@@ -3296,13 +3275,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3571428571428572</v>
+        <v>0.3</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3314,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K42">
         <v>0.3333333333333333</v>
@@ -3346,13 +3325,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.3428571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3364,19 +3343,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K43">
-        <v>0.2962962962962963</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3388,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3396,13 +3375,13 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3414,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K44">
-        <v>0.2950819672131147</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3438,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3446,13 +3425,13 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3464,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="K45">
-        <v>0.2941176470588235</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3488,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3496,13 +3475,13 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3514,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K46">
-        <v>0.2923076923076923</v>
+        <v>0.25</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3538,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3546,13 +3525,13 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3564,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K47">
         <v>0.25</v>
@@ -3593,10 +3572,10 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3614,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K48">
         <v>0.25</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3638,71 +3617,71 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>3</v>
       </c>
-      <c r="D49">
+      <c r="J49" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K49">
+        <v>0.25</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>3</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>6</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K49">
-        <v>0.2439024390243902</v>
-      </c>
-      <c r="L49">
-        <v>10</v>
-      </c>
-      <c r="M49">
-        <v>10</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3714,45 +3693,45 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K50">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>3</v>
-      </c>
-      <c r="M50">
-        <v>3</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3764,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="K51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3788,21 +3767,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3814,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3838,45 +3817,45 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B53">
-        <v>0.3181818181818182</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>7</v>
       </c>
-      <c r="D53">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>15</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K53">
-        <v>0.2</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3888,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3896,13 +3875,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3076923076923077</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3914,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K54">
         <v>0.2</v>
@@ -3946,13 +3925,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2941176470588235</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3964,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K55">
         <v>0.2</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3988,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3996,13 +3975,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4014,19 +3993,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K56">
         <v>0.2</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4038,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4046,37 +4025,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>4</v>
       </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>11</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K57">
         <v>0.2</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4088,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4096,37 +4075,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>4</v>
       </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>11</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K58">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4138,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4146,13 +4125,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.25</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4164,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K59">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4188,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4196,7 +4175,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -4214,13 +4193,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="K60">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -4238,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4246,13 +4225,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2142857142857143</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4264,19 +4243,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K61">
-        <v>0.1666666666666667</v>
+        <v>0.1875</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4288,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4296,13 +4275,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2142857142857143</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4314,19 +4293,19 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K62">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4338,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4346,13 +4325,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2105263157894737</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4364,19 +4343,19 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K63">
-        <v>0.1428571428571428</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4388,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4396,7 +4375,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4414,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K64">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4438,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4446,13 +4425,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4464,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K65">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4488,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4496,13 +4475,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1818181818181818</v>
+        <v>0.15</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4514,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K66">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4538,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4546,7 +4525,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4564,19 +4543,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="K67">
-        <v>0.1428571428571428</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4588,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4596,7 +4575,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4614,19 +4593,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K68">
-        <v>0.1408450704225352</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L68">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4638,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4646,7 +4625,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4664,19 +4643,19 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="K69">
-        <v>0.1366120218579235</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L69">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4688,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>948</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4696,13 +4675,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1666666666666667</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4714,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="K70">
-        <v>0.1333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4738,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4746,7 +4725,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4764,19 +4743,19 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K71">
-        <v>0.1333333333333333</v>
+        <v>0.1384335154826958</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4788,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>13</v>
+        <v>946</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4796,7 +4775,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4814,19 +4793,19 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K72">
-        <v>0.125</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4838,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4846,13 +4825,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1578947368421053</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4864,19 +4843,19 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="K73">
-        <v>0.125</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4888,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4896,13 +4875,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1578947368421053</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4914,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K74">
         <v>0.125</v>
@@ -4946,13 +4925,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.15</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4964,19 +4943,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K75">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4988,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4996,13 +4975,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1461538461538462</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5014,19 +4993,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K76">
-        <v>0.1153846153846154</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5038,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -5046,13 +5025,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5064,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K77">
         <v>0.1111111111111111</v>
@@ -5096,13 +5075,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.12</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5114,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K78">
         <v>0.1111111111111111</v>
@@ -5146,7 +5125,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5164,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K79">
         <v>0.1111111111111111</v>
@@ -5196,49 +5175,49 @@
         <v>85</v>
       </c>
       <c r="B80">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>10</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K80">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
         <v>8</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K80">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80">
-        <v>3</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5246,49 +5225,49 @@
         <v>86</v>
       </c>
       <c r="B81">
+        <v>0.08737864077669903</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>94</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K81">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>8</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K81">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="L81">
-        <v>2</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5296,13 +5275,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1067961165048544</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5314,19 +5293,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K82">
-        <v>0.09259259259259259</v>
+        <v>0.1</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5338,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5346,13 +5325,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1057692307692308</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5364,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K83">
-        <v>0.08695652173913043</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L83">
         <v>2</v>
@@ -5388,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5396,13 +5375,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5414,19 +5393,19 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K84">
-        <v>0.08333333333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5438,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5446,7 +5425,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5464,19 +5443,19 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K85">
-        <v>0.08333333333333333</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5488,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5496,13 +5475,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.09090909090909091</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5514,13 +5493,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="K86">
-        <v>0.08333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L86">
         <v>2</v>
@@ -5538,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5546,7 +5525,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.09090909090909091</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5564,19 +5543,19 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K87">
-        <v>0.08196721311475409</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5588,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5596,13 +5575,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09090909090909091</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5614,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K88">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5638,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5646,13 +5625,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08571428571428572</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5664,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K89">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5688,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5696,13 +5675,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0851063829787234</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5714,19 +5693,19 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K90">
-        <v>0.07368421052631578</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5738,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5746,7 +5725,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08333333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5764,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K91">
-        <v>0.06666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L91">
         <v>2</v>
@@ -5788,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5796,7 +5775,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08333333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5814,19 +5793,19 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K92">
-        <v>0.06666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5838,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5846,7 +5825,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08333333333333333</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5864,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="K93">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5888,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5896,13 +5875,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.07407407407407407</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5914,13 +5893,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K94">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -5938,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5946,13 +5925,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07142857142857142</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5964,19 +5943,19 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="K95">
-        <v>0.0625</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5988,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5996,13 +5975,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.06896551724137931</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -6014,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K96">
-        <v>0.06</v>
+        <v>0.0625</v>
       </c>
       <c r="L96">
         <v>3</v>
@@ -6038,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6046,7 +6025,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.06666666666666667</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6064,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="K97">
-        <v>0.05882352941176471</v>
+        <v>0.0625</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -6088,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6096,7 +6075,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.0625</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6114,19 +6093,19 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K98">
-        <v>0.05555555555555555</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6138,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6146,13 +6125,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.0625</v>
+        <v>0.032</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6164,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K99">
         <v>0.05263157894736842</v>
@@ -6196,7 +6175,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.0625</v>
+        <v>0.03125</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6214,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K100">
         <v>0.05263157894736842</v>
@@ -6246,7 +6225,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.05882352941176471</v>
+        <v>0.025</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6264,13 +6243,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K101">
-        <v>0.05</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6288,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6296,13 +6275,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6314,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K102">
         <v>0.05</v>
@@ -6346,13 +6325,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.048</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6364,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K103">
-        <v>0.04347826086956522</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -6388,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6396,49 +6375,49 @@
         <v>109</v>
       </c>
       <c r="B104">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>41</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K104">
         <v>0.04761904761904762</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104">
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
         <v>20</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K104">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="L104">
-        <v>2</v>
-      </c>
-      <c r="M104">
-        <v>2</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>1</v>
-      </c>
-      <c r="P104" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6446,7 +6425,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.04761904761904762</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6464,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="K105">
-        <v>0.03846153846153846</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -6488,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6496,13 +6475,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.04545454545454546</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6514,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K106">
-        <v>0.03571428571428571</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -6538,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6546,49 +6525,49 @@
         <v>112</v>
       </c>
       <c r="B107">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>47</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K107">
         <v>0.04166666666666666</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107">
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
         <v>23</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K107">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>4</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-      <c r="P107" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6596,32 +6575,32 @@
         <v>113</v>
       </c>
       <c r="B108">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>141</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K108">
         <v>0.04</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>24</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K108">
-        <v>0.03389830508474576</v>
-      </c>
       <c r="L108">
         <v>2</v>
       </c>
@@ -6638,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6646,7 +6625,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.03846153846153846</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6664,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="K109">
-        <v>0.03389830508474576</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L109">
         <v>2</v>
@@ -6688,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6696,7 +6675,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.03703703703703703</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6714,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K110">
-        <v>0.02439024390243903</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -6738,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6746,7 +6725,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.03571428571428571</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6764,13 +6743,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K111">
-        <v>0.02380952380952381</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -6788,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6796,13 +6775,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.03448275862068965</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6814,19 +6793,19 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K112">
-        <v>0.02083333333333333</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6838,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -6846,7 +6825,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.03225806451612903</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6864,19 +6843,19 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="K113">
-        <v>0.02013422818791946</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6888,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -6896,13 +6875,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.02916666666666667</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6914,13 +6893,13 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="K114">
-        <v>0.01739130434782609</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="L114">
         <v>2</v>
@@ -6938,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -6946,13 +6925,13 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.02830188679245283</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6964,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K115">
-        <v>0.01639344262295082</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -6988,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -6996,13 +6975,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.02816901408450704</v>
+        <v>0.01337792642140468</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -7014,13 +6993,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K116">
-        <v>0.0136986301369863</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -7038,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7046,13 +7025,13 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.02777777777777778</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -7064,13 +7043,13 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K117">
-        <v>0.01351351351351351</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -7088,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7096,37 +7075,37 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.025</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K118">
-        <v>0.01298701298701299</v>
+        <v>0.02077922077922078</v>
       </c>
       <c r="L118">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -7138,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7146,7 +7125,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.02272727272727273</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7164,19 +7143,19 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K119">
-        <v>0.0101010101010101</v>
+        <v>0.02</v>
       </c>
       <c r="L119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7188,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>196</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7196,7 +7175,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.02173913043478261</v>
+        <v>0.01</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7214,19 +7193,19 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K120">
-        <v>0.009900990099009901</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7238,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7246,13 +7225,13 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.02173913043478261</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -7264,19 +7243,19 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K121">
-        <v>0.009433962264150943</v>
+        <v>0.0176678445229682</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -7288,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>105</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7296,13 +7275,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.02083333333333333</v>
+        <v>0.008908685968819599</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -7314,13 +7293,13 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>47</v>
+        <v>445</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="K122">
-        <v>0.007067137809187279</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="L122">
         <v>2</v>
@@ -7338,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>281</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7346,13 +7325,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0198019801980198</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -7364,31 +7343,31 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="K123">
-        <v>0.006779661016949152</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N123">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O123">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>293</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7396,37 +7375,37 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.01851851851851852</v>
+        <v>0.008237232289950576</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>53</v>
+        <v>602</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="K124">
-        <v>0.006349206349206349</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7438,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>313</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7446,13 +7425,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.01754385964912281</v>
+        <v>0.008</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7464,13 +7443,13 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K125">
-        <v>0.006329113924050633</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7488,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7496,7 +7475,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.01739130434782609</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -7514,19 +7493,19 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="K126">
-        <v>0.005797101449275362</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="L126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7538,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>343</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -7546,7 +7525,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.01724137931034483</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -7564,19 +7543,19 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K127">
-        <v>0.005617977528089887</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7588,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>708</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -7596,13 +7575,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.01639344262295082</v>
+        <v>0.006734006734006734</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7614,13 +7593,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K128">
-        <v>0.005319148936170213</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -7638,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>187</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -7646,37 +7625,37 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.016</v>
+        <v>0.006681514476614699</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>123</v>
+        <v>446</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K129">
-        <v>0.005025125628140704</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7688,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>198</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -7696,7 +7675,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.01587301587301587</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -7714,13 +7693,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K130">
-        <v>0.005025125628140704</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -7738,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -7746,31 +7725,31 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0136986301369863</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>72</v>
+        <v>2768</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K131">
-        <v>0.004878048780487805</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -7788,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -7796,49 +7775,49 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.01346801346801347</v>
+        <v>0.005213764337851929</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F132">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>293</v>
+        <v>954</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="K132">
-        <v>0.004175365344467641</v>
+        <v>0.006339144215530904</v>
       </c>
       <c r="L132">
         <v>4</v>
       </c>
       <c r="M132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>954</v>
+        <v>627</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -7846,7 +7825,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.01298701298701299</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7864,19 +7843,19 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K133">
-        <v>0.003968253968253968</v>
+        <v>0.005865102639296188</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7888,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>251</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -7896,7 +7875,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.01123595505617977</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -7914,31 +7893,31 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="K134">
-        <v>0.003610108303249098</v>
+        <v>0.005420054200542005</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>2</v>
       </c>
       <c r="N134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O134">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>276</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -7946,7 +7925,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.01041666666666667</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -7964,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K135">
-        <v>0.003389830508474576</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -7988,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>294</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -7996,31 +7975,31 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.01</v>
+        <v>0.003827751196172249</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>99</v>
+        <v>1041</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K136">
-        <v>0.0033003300330033</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -8038,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>302</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -8046,37 +8025,37 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.009345794392523364</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K137">
-        <v>0.002967359050445104</v>
+        <v>0.004213483146067416</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -8088,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>336</v>
+        <v>709</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8096,49 +8075,49 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.008849557522123894</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>224</v>
+        <v>661</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K138">
-        <v>0.002624671916010499</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="L138">
         <v>3</v>
       </c>
       <c r="M138">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="O138">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="P138" t="b">
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>1140</v>
+        <v>729</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -8146,49 +8125,49 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.008223684210526315</v>
+        <v>0.002885170225043278</v>
       </c>
       <c r="C139">
         <v>5</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>603</v>
+        <v>1728</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="K139">
-        <v>0.002288329519450801</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <v>2</v>
       </c>
       <c r="N139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O139">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>436</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8196,49 +8175,49 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00819672131147541</v>
+        <v>0.002546473134708429</v>
       </c>
       <c r="C140">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D140">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F140">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>726</v>
+        <v>3917</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>297</v>
+        <v>142</v>
       </c>
       <c r="K140">
-        <v>0.002277904328018223</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M140">
         <v>2</v>
       </c>
       <c r="N140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140">
-        <v>876</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8246,49 +8225,49 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.008086253369272238</v>
+        <v>0.00209643605870021</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>368</v>
+        <v>952</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="K141">
-        <v>0.001917545541706615</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N141">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O141">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>1041</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -8296,31 +8275,31 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.007518796992481203</v>
+        <v>0.001746724890829694</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>264</v>
+        <v>1143</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K142">
-        <v>0.001818181818181818</v>
+        <v>0.003174603174603175</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -8338,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>549</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8346,49 +8325,49 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0072992700729927</v>
+        <v>0.00136986301369863</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>136</v>
+        <v>729</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="K143">
-        <v>0.001623376623376623</v>
+        <v>0.003134796238244514</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N143">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="O143">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="P143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143">
-        <v>615</v>
+        <v>954</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8396,31 +8375,31 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.007183908045977011</v>
+        <v>0.001282051282051282</v>
       </c>
       <c r="C144">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F144">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>2764</v>
+        <v>779</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K144">
-        <v>0.001584786053882726</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -8438,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>630</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8446,49 +8425,49 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.006666666666666667</v>
+        <v>0.001141552511415525</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <v>3</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>447</v>
+        <v>875</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="K145">
-        <v>0.001445086705202312</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M145">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="O145">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="P145" t="b">
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>2764</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -8496,49 +8475,49 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.004366812227074236</v>
+        <v>0.0009090909090909091</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>228</v>
+        <v>1099</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K146">
-        <v>0.001375515818431912</v>
+        <v>0.002280501710376283</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="O146">
-        <v>0.14</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>726</v>
+        <v>875</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -8546,431 +8525,361 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.004175365344467641</v>
+        <v>0.0008748906386701663</v>
       </c>
       <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1142</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K147">
+        <v>0.002237136465324385</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
         <v>4</v>
       </c>
-      <c r="D147">
-        <v>8</v>
-      </c>
-      <c r="E147">
-        <v>0.5</v>
-      </c>
-      <c r="F147">
-        <v>0.5</v>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>954</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K147">
-        <v>0.001282051282051282</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
       <c r="N147">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O147">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>779</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:17">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148">
-        <v>0.003610108303249098</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148">
-        <v>0.5</v>
-      </c>
-      <c r="F148">
-        <v>0.5</v>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148">
-        <v>276</v>
-      </c>
       <c r="J148" s="1" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="K148">
-        <v>0.001051524710830704</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M148">
         <v>2</v>
       </c>
       <c r="N148">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O148">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q148">
         <v>950</v>
       </c>
     </row>
     <row r="149" spans="1:17">
-      <c r="A149" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149">
-        <v>0.003496503496503497</v>
-      </c>
-      <c r="C149">
+      <c r="J149" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K149">
+        <v>0.00209643605870021</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
         <v>4</v>
       </c>
-      <c r="D149">
-        <v>7</v>
-      </c>
-      <c r="E149">
-        <v>0.57</v>
-      </c>
-      <c r="F149">
-        <v>0.43</v>
-      </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149">
-        <v>1140</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K149">
-        <v>0.001048218029350105</v>
-      </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149">
+      <c r="N149">
+        <v>0.5</v>
+      </c>
+      <c r="O149">
+        <v>0.5</v>
+      </c>
+      <c r="P149" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="J150" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K150">
+        <v>0.001746724890829694</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>0.5</v>
+      </c>
+      <c r="O150">
+        <v>0.5</v>
+      </c>
+      <c r="P150" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="J151" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K151">
+        <v>0.001733102253032929</v>
+      </c>
+      <c r="L151">
         <v>3</v>
       </c>
-      <c r="N149">
+      <c r="M151">
+        <v>8</v>
+      </c>
+      <c r="N151">
+        <v>0.62</v>
+      </c>
+      <c r="O151">
+        <v>0.38</v>
+      </c>
+      <c r="P151" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="J152" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K152">
+        <v>0.001658374792703151</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>6</v>
+      </c>
+      <c r="N152">
+        <v>0.83</v>
+      </c>
+      <c r="O152">
+        <v>0.17</v>
+      </c>
+      <c r="P152" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="J153" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K153">
+        <v>0.001623376623376623</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="J154" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K154">
+        <v>0.001510574018126888</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
         <v>0.67</v>
       </c>
-      <c r="O149">
+      <c r="O154">
         <v>0.33</v>
       </c>
-      <c r="P149" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q149">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150">
-        <v>0.003472222222222222</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>287</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K150">
-        <v>0.0008748906386701663</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>1</v>
-      </c>
-      <c r="P150" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="A151" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151">
-        <v>0.002873563218390805</v>
-      </c>
-      <c r="C151">
-        <v>3</v>
-      </c>
-      <c r="D151">
+      <c r="P154" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="J155" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K155">
+        <v>0.001443001443001443</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>20</v>
+      </c>
+      <c r="N155">
+        <v>0.8</v>
+      </c>
+      <c r="O155">
+        <v>0.2</v>
+      </c>
+      <c r="P155" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="J156" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K156">
+        <v>0.001282051282051282</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>0.5</v>
+      </c>
+      <c r="O156">
+        <v>0.5</v>
+      </c>
+      <c r="P156" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="J157" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K157">
+        <v>0.0009596928982725527</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
         <v>5</v>
       </c>
-      <c r="E151">
-        <v>0.6</v>
-      </c>
-      <c r="F151">
-        <v>0.4</v>
-      </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151">
+      <c r="N157">
+        <v>0.8</v>
+      </c>
+      <c r="O157">
+        <v>0.2</v>
+      </c>
+      <c r="P157" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q157">
         <v>1041</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K151">
-        <v>0.0005767012687427913</v>
-      </c>
-      <c r="L151">
-        <v>1</v>
-      </c>
-      <c r="M151">
-        <v>3</v>
-      </c>
-      <c r="N151">
-        <v>0.67</v>
-      </c>
-      <c r="O151">
-        <v>0.33</v>
-      </c>
-      <c r="P151" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q151">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
-      <c r="A152" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B152">
-        <v>0.002545824847250509</v>
-      </c>
-      <c r="C152">
-        <v>10</v>
-      </c>
-      <c r="D152">
-        <v>10</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
-      <c r="A153" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153">
-        <v>0.002288329519450801</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153">
+    </row>
+    <row r="158" spans="1:17">
+      <c r="J158" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K158">
+        <v>0.0009090909090909091</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
         <v>0.5</v>
       </c>
-      <c r="F153">
+      <c r="O158">
         <v>0.5</v>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="A154" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154">
-        <v>0.002094240837696335</v>
-      </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154">
-        <v>0.67</v>
-      </c>
-      <c r="F154">
-        <v>0.33</v>
-      </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="A155" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B155">
-        <v>0.001506024096385542</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="A156" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B156">
-        <v>0.001282051282051282</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>2</v>
-      </c>
-      <c r="E156">
-        <v>0.5</v>
-      </c>
-      <c r="F156">
-        <v>0.5</v>
-      </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="A157" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B157">
-        <v>0.001152737752161383</v>
-      </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157">
-        <v>3</v>
-      </c>
-      <c r="E157">
-        <v>0.67</v>
-      </c>
-      <c r="F157">
-        <v>0.33</v>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="A158" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B158">
-        <v>0.001051524710830704</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>2</v>
-      </c>
-      <c r="E158">
-        <v>0.5</v>
-      </c>
-      <c r="F158">
-        <v>0.5</v>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>950</v>
+      <c r="P158" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="J159" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K159">
+        <v>0.0002552322613578356</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>11</v>
+      </c>
+      <c r="N159">
+        <v>0.91</v>
+      </c>
+      <c r="O159">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P159" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>3917</v>
       </c>
     </row>
   </sheetData>
